--- a/biology/Biochimie/Sédoheptulose/Sédoheptulose.xlsx
+++ b/biology/Biochimie/Sédoheptulose/Sédoheptulose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9doheptulose</t>
+          <t>Sédoheptulose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sédoheptulose est un cétose, l'une des deux grandes familles d'oses. 
-C'est un heptose[4] composé de 7 atomes de carbone et dont le groupement cétone est en C2. Tous ces groupements hydroxyles (OH) sont à droite à part sur le C3. 
-Un autre heptose est le mannoheptulose (Manno-2-heptulose)[5].
-Le sédoheptulose est naturellement présent dans le Sedum spectabile[6] et probablement dans toutes les plantes comme intermédiaire de la photosynthèse (voie des pentoses phosphates, sédoheptulose-7-phosphate). Il est aussi présent dans les tissus de mammifères[2].
-Dans l'eau à 20 °C, la forme tautomère prédominante du sédoheptulose est la forme β-furanose (64 %)[2]. Les autres formes sont minoritaires :
+C'est un heptose composé de 7 atomes de carbone et dont le groupement cétone est en C2. Tous ces groupements hydroxyles (OH) sont à droite à part sur le C3. 
+Un autre heptose est le mannoheptulose (Manno-2-heptulose).
+Le sédoheptulose est naturellement présent dans le Sedum spectabile et probablement dans toutes les plantes comme intermédiaire de la photosynthèse (voie des pentoses phosphates, sédoheptulose-7-phosphate). Il est aussi présent dans les tissus de mammifères.
+Dans l'eau à 20 °C, la forme tautomère prédominante du sédoheptulose est la forme β-furanose (64 %). Les autres formes sont minoritaires :
 α-pyranose (17 %),
 β-furanose (6 %),
 α-furanose (13 %).</t>
